--- a/results/BL_KP_P95_553_results.xlsx
+++ b/results/BL_KP_P95_553_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/437b0d8cdafbd5b9/Documents/Personal/Learning/UC Berkeley/MIDS/Courses/W266/Final Project/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sundeepm\source\MIDS\w266\w266-final-project\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="11_7CC6592A8DE113A078047CE5A9D9FA74264DD63D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08F86A00-44D4-42C5-9CF2-1EB0D684E13F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA18D745-E148-4A55-BDE1-61DFC88AB03F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="3680" windowWidth="16920" windowHeight="10540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8614,7 +8614,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8624,6 +8624,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -8655,7 +8661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8664,6 +8670,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8977,6 +8987,7 @@
   <cols>
     <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.453125" customWidth="1"/>
     <col min="11" max="11" width="17.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9002,7 +9013,7 @@
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -9063,9 +9074,7 @@
         <v>-100</v>
       </c>
       <c r="H2" s="3"/>
-      <c r="I2">
-        <v>-100</v>
-      </c>
+      <c r="I2" s="5"/>
       <c r="J2">
         <v>-100</v>
       </c>
@@ -9119,9 +9128,7 @@
         <v>-100</v>
       </c>
       <c r="H3" s="3"/>
-      <c r="I3">
-        <v>-100</v>
-      </c>
+      <c r="I3" s="5"/>
       <c r="J3">
         <v>-100</v>
       </c>
@@ -9175,9 +9182,7 @@
         <v>-100</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4">
-        <v>-100</v>
-      </c>
+      <c r="I4" s="5"/>
       <c r="J4">
         <v>-100</v>
       </c>
@@ -9231,9 +9236,7 @@
         <v>-100</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5">
-        <v>-100</v>
-      </c>
+      <c r="I5" s="5"/>
       <c r="J5">
         <v>-100</v>
       </c>
@@ -9287,9 +9290,7 @@
         <v>-100</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6">
-        <v>-100</v>
-      </c>
+      <c r="I6" s="5"/>
       <c r="J6">
         <v>-100</v>
       </c>
@@ -9343,9 +9344,7 @@
         <v>-100</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7">
-        <v>-100</v>
-      </c>
+      <c r="I7" s="5"/>
       <c r="J7">
         <v>-100</v>
       </c>
@@ -9399,9 +9398,7 @@
         <v>-100</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8">
-        <v>-100</v>
-      </c>
+      <c r="I8" s="5"/>
       <c r="J8">
         <v>-100</v>
       </c>
@@ -9455,9 +9452,7 @@
         <v>-100</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9">
-        <v>-100</v>
-      </c>
+      <c r="I9" s="5"/>
       <c r="J9">
         <v>-100</v>
       </c>
@@ -9511,9 +9506,7 @@
         <v>-100</v>
       </c>
       <c r="H10" s="3"/>
-      <c r="I10">
-        <v>-100</v>
-      </c>
+      <c r="I10" s="5"/>
       <c r="J10">
         <v>-100</v>
       </c>
@@ -9567,9 +9560,7 @@
         <v>-100</v>
       </c>
       <c r="H11" s="3"/>
-      <c r="I11">
-        <v>-100</v>
-      </c>
+      <c r="I11" s="5"/>
       <c r="J11">
         <v>-100</v>
       </c>
@@ -9623,9 +9614,7 @@
         <v>-100</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12">
-        <v>-100</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12">
         <v>-100</v>
       </c>
